--- a/UDM.Insurance.Interface/Templates/ReportTemplateSTLAndBCP.xlsx
+++ b/UDM.Insurance.Interface/Templates/ReportTemplateSTLAndBCP.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" showInkAnnotation="0" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B925BB-D05C-4FF9-9FF0-7FD91353B160}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9D868A3-5E4E-4F7B-AD1E-2755A95991FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="664" firstSheet="8" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3240" yWindow="3240" windowWidth="21600" windowHeight="11385" tabRatio="664" firstSheet="8" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="STLReportDefault" sheetId="3" r:id="rId1"/>
@@ -8639,8 +8639,8 @@
   </sheetPr>
   <dimension ref="A1:ED100"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="W1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="CN12" sqref="CN12:CP13"/>
+    <sheetView view="pageLayout" topLeftCell="W1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AL14" sqref="AL14:AO14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11656,6 +11656,8 @@
     <mergeCell ref="CQ14:CS14"/>
     <mergeCell ref="BC12:BF13"/>
     <mergeCell ref="AP12:AS13"/>
+    <mergeCell ref="CW14:CY14"/>
+    <mergeCell ref="CT14:CV14"/>
     <mergeCell ref="A18:E18"/>
     <mergeCell ref="A19:E20"/>
     <mergeCell ref="F19:K20"/>
@@ -11704,8 +11706,6 @@
     <mergeCell ref="AC21:AF21"/>
     <mergeCell ref="V22:X22"/>
     <mergeCell ref="Y22:AB22"/>
-    <mergeCell ref="CW14:CY14"/>
-    <mergeCell ref="CT14:CV14"/>
     <mergeCell ref="AG22:AI22"/>
     <mergeCell ref="AJ22:AQ22"/>
     <mergeCell ref="AC22:AF22"/>
@@ -11785,8 +11785,8 @@
   </sheetPr>
   <dimension ref="A1:CT100"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="CO24" sqref="CO24:CQ24"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="Z7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="CF13" sqref="CF13:CH13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12881,11 +12881,11 @@
       </c>
       <c r="CD12" s="255"/>
       <c r="CE12" s="256"/>
-      <c r="CF12" s="292" t="s">
+      <c r="CF12" s="341" t="s">
         <v>40</v>
       </c>
-      <c r="CG12" s="292"/>
-      <c r="CH12" s="292"/>
+      <c r="CG12" s="342"/>
+      <c r="CH12" s="343"/>
       <c r="CI12" s="254" t="s">
         <v>15</v>
       </c>
@@ -12991,9 +12991,9 @@
       <c r="CC13" s="257"/>
       <c r="CD13" s="258"/>
       <c r="CE13" s="259"/>
-      <c r="CF13" s="292"/>
-      <c r="CG13" s="292"/>
-      <c r="CH13" s="292"/>
+      <c r="CF13" s="596"/>
+      <c r="CG13" s="597"/>
+      <c r="CH13" s="598"/>
       <c r="CI13" s="257"/>
       <c r="CJ13" s="258"/>
       <c r="CK13" s="259"/>
@@ -14103,7 +14103,7 @@
     <row r="99" s="34" customFormat="1" ht="11.25" x14ac:dyDescent="0.2"/>
     <row r="100" s="34" customFormat="1" ht="11.25" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="131">
+  <mergeCells count="132">
     <mergeCell ref="A26:I26"/>
     <mergeCell ref="J26:Q26"/>
     <mergeCell ref="AB22:AC22"/>
@@ -14210,7 +14210,8 @@
     <mergeCell ref="BW12:BY13"/>
     <mergeCell ref="BZ12:CB12"/>
     <mergeCell ref="CC12:CE13"/>
-    <mergeCell ref="CF12:CH13"/>
+    <mergeCell ref="CF12:CH12"/>
+    <mergeCell ref="CF13:CH13"/>
     <mergeCell ref="A6:CT6"/>
     <mergeCell ref="A8:CT8"/>
     <mergeCell ref="G10:Z10"/>
